--- a/medicine/Mort/Sacramental_de_San_Lorenzo_y_San_José/Sacramental_de_San_Lorenzo_y_San_José.xlsx
+++ b/medicine/Mort/Sacramental_de_San_Lorenzo_y_San_José/Sacramental_de_San_Lorenzo_y_San_José.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sacramental_de_San_Lorenzo_y_San_Jos%C3%A9</t>
+          <t>Sacramental_de_San_Lorenzo_y_San_José</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Sacramental de San Lorenzo y San José est un cimetière de Madrid en Espagne, situé dans l'arrondissement de Carabanchel.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sacramental_de_San_Lorenzo_y_San_Jos%C3%A9</t>
+          <t>Sacramental_de_San_Lorenzo_y_San_José</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Sépultures célèbres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Matilde Díez (1818-1883), actrice et Julián Romea (1813-1968), acteur[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Matilde Díez (1818-1883), actrice et Julián Romea (1813-1968), acteur
 Miguel Ramos Carrión (1848-1915), dramaturge, écrivain et journaliste espagnol.
 Abel Bonnard
-Ernestina de Champourcín (1905-1999), écrivaine[2]
+Ernestina de Champourcín (1905-1999), écrivaine
 José de Selgas
 Emilia Pardo Bazán, écrivaine
 Modesto Lafuente
